--- a/biology/Médecine/Crête_lacrymale_postérieure/Crête_lacrymale_postérieure.xlsx
+++ b/biology/Médecine/Crête_lacrymale_postérieure/Crête_lacrymale_postérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_lacrymale_post%C3%A9rieure</t>
+          <t>Crête_lacrymale_postérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La crête lacrymale postérieure (ou crête lacrymale de l’unguis) est une crête osseuse verticale sur la face latérale de l'os lacrymal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_lacrymale_post%C3%A9rieure</t>
+          <t>Crête_lacrymale_postérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,14 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La crête lacrymale postérieure divise la face latérale en deux parties :
 la partie postérieure ou face orbitaire située dans le plan de la lame orbitaire de l'ethmoïde ;
 la partie antérieure occupée par le sillon lacrymal.
 La crête lacrymale postérieure se termine en bas par l'hamulus lacrymal qui s'articule avec le tubercule lacrymal du maxillaire.
-Rapports
-La crête lacrymale postérieure est située juste derrière le sac lacrymal dans sa partie supérieure, le canal naso-lacrymal dans sa partie inférieure.
-Variation
-Chez la plupart des gens, la crête lacrymale postérieure est assez proéminente[1]. Cependant, chez environ 20% des personnes, il est assez peu profond[1].
-En revanche, la crête lacrymale antérieure est presque toujours très proéminente[1].
 </t>
         </is>
       </c>
@@ -532,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_lacrymale_post%C3%A9rieure</t>
+          <t>Crête_lacrymale_postérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Rôle</t>
+          <t>Structure</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le muscle de Horner, qui fait partie du muscle orbiculaire de l’œil, s'insère sur la partie supérieure de la crête lacrymale postérieure[2].
-Elle contribue à la protection du sac lacrymal.
+          <t>Rapports</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La crête lacrymale postérieure est située juste derrière le sac lacrymal dans sa partie supérieure, le canal naso-lacrymal dans sa partie inférieure.
 </t>
         </is>
       </c>
@@ -564,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_lacrymale_post%C3%A9rieure</t>
+          <t>Crête_lacrymale_postérieure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,13 +593,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez la plupart des gens, la crête lacrymale postérieure est assez proéminente. Cependant, chez environ 20% des personnes, il est assez peu profond.
+En revanche, la crête lacrymale antérieure est presque toujours très proéminente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Crête_lacrymale_postérieure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cr%C3%AAte_lacrymale_post%C3%A9rieure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Rôle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle de Horner, qui fait partie du muscle orbiculaire de l’œil, s'insère sur la partie supérieure de la crête lacrymale postérieure.
+Elle contribue à la protection du sac lacrymal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crête_lacrymale_postérieure</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cr%C3%AAte_lacrymale_post%C3%A9rieure</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est assez fin et fragile chez la plupart des gens[3].
-La crête lacrymale postérieure peut être vulnérable aux fractures par avulsion[4] : 25 % de ces fractures par avulsion sont liées à une fracture du crâne Le Fort III[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est assez fin et fragile chez la plupart des gens.
+La crête lacrymale postérieure peut être vulnérable aux fractures par avulsion : 25 % de ces fractures par avulsion sont liées à une fracture du crâne Le Fort III.
 </t>
         </is>
       </c>
